--- a/excels/my_list_report.xlsx
+++ b/excels/my_list_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Card name</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Daily Change</t>
   </si>
   <si>
-    <t>Price 2021-05-11</t>
+    <t>Price 2021-05-12</t>
   </si>
   <si>
     <t>Intuition, Tempest (TE) Price History</t>
@@ -82,58 +82,49 @@
     <t>Boseiju Who Shelters All, From the Vault Realms:Foil (V12) Price</t>
   </si>
   <si>
-    <t>194.70</t>
-  </si>
-  <si>
-    <t>0.31</t>
-  </si>
-  <si>
-    <t>16.21</t>
-  </si>
-  <si>
-    <t>4.19</t>
-  </si>
-  <si>
-    <t>37.50</t>
-  </si>
-  <si>
-    <t>21.09</t>
-  </si>
-  <si>
-    <t>19.75</t>
-  </si>
-  <si>
-    <t>6.39</t>
-  </si>
-  <si>
-    <t>5.27</t>
-  </si>
-  <si>
-    <t>14.64</t>
-  </si>
-  <si>
-    <t>5.76</t>
-  </si>
-  <si>
-    <t>5.43</t>
-  </si>
-  <si>
-    <t>10.29</t>
-  </si>
-  <si>
-    <t>3.24</t>
-  </si>
-  <si>
-    <t>11.16</t>
-  </si>
-  <si>
-    <t>11.88</t>
-  </si>
-  <si>
-    <t>58.50</t>
-  </si>
-  <si>
-    <t>28.26</t>
+    <t>249.99</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>20.99</t>
+  </si>
+  <si>
+    <t>5.99</t>
+  </si>
+  <si>
+    <t>39.99</t>
+  </si>
+  <si>
+    <t>26.99</t>
+  </si>
+  <si>
+    <t>22.99</t>
+  </si>
+  <si>
+    <t>7.99</t>
+  </si>
+  <si>
+    <t>12.99</t>
+  </si>
+  <si>
+    <t>3.49</t>
+  </si>
+  <si>
+    <t>4.49</t>
+  </si>
+  <si>
+    <t>8.49</t>
+  </si>
+  <si>
+    <t>10.99</t>
+  </si>
+  <si>
+    <t>89.99</t>
+  </si>
+  <si>
+    <t>27.99</t>
   </si>
 </sst>
 </file>
@@ -634,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -648,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -662,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -676,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -690,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -704,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -718,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -732,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -746,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -760,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/excels/my_list_report.xlsx
+++ b/excels/my_list_report.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Card name</t>
   </si>
@@ -25,7 +25,25 @@
     <t>Daily Change</t>
   </si>
   <si>
-    <t>Price 2021-05-12</t>
+    <t>Price 2021-05-13 test 1</t>
+  </si>
+  <si>
+    <t>Price 2021-05-13 test 2</t>
+  </si>
+  <si>
+    <t>Price 2021-05-13 test 3</t>
+  </si>
+  <si>
+    <t>Price 2021-05-13 test 4</t>
+  </si>
+  <si>
+    <t>Price 2021-05-13 test 5</t>
+  </si>
+  <si>
+    <t>Price 2021-05-13 test 6</t>
+  </si>
+  <si>
+    <t>Price 2021-05-13 test 7</t>
   </si>
   <si>
     <t>Intuition, Tempest (TE) Price History</t>
@@ -80,51 +98,6 @@
   </si>
   <si>
     <t>Boseiju Who Shelters All, From the Vault Realms:Foil (V12) Price</t>
-  </si>
-  <si>
-    <t>249.99</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>20.99</t>
-  </si>
-  <si>
-    <t>5.99</t>
-  </si>
-  <si>
-    <t>39.99</t>
-  </si>
-  <si>
-    <t>26.99</t>
-  </si>
-  <si>
-    <t>22.99</t>
-  </si>
-  <si>
-    <t>7.99</t>
-  </si>
-  <si>
-    <t>12.99</t>
-  </si>
-  <si>
-    <t>3.49</t>
-  </si>
-  <si>
-    <t>4.49</t>
-  </si>
-  <si>
-    <t>8.49</t>
-  </si>
-  <si>
-    <t>10.99</t>
-  </si>
-  <si>
-    <t>89.99</t>
-  </si>
-  <si>
-    <t>27.99</t>
   </si>
 </sst>
 </file>
@@ -482,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,257 +474,599 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>263.46</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+        <v>-2.19</v>
+      </c>
+      <c r="D2">
+        <v>249.99</v>
+      </c>
+      <c r="E2">
+        <v>255.8944789443465</v>
+      </c>
+      <c r="F2">
+        <v>258.0092699782552</v>
+      </c>
+      <c r="G2">
+        <v>266.0363252011533</v>
+      </c>
+      <c r="H2">
+        <v>268.9938154037599</v>
+      </c>
+      <c r="I2">
+        <v>273.7542939286838</v>
+      </c>
+      <c r="J2">
+        <v>271.5657814731559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>14.95</v>
+      </c>
+      <c r="C3">
+        <v>19.79</v>
+      </c>
+      <c r="D3">
+        <v>0.35</v>
+      </c>
+      <c r="E3">
+        <v>9.383522506371699</v>
+      </c>
+      <c r="F3">
+        <v>11.69348648248593</v>
+      </c>
+      <c r="G3">
+        <v>10.23650479952418</v>
+      </c>
+      <c r="H3">
+        <v>23.50337137099229</v>
+      </c>
+      <c r="I3">
+        <v>14.8321969066782</v>
+      </c>
+      <c r="J3">
+        <v>34.62566338289886</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>33.2</v>
+      </c>
+      <c r="C4">
+        <v>10.56</v>
+      </c>
+      <c r="D4">
+        <v>20.99</v>
+      </c>
+      <c r="E4">
+        <v>25.33764369013965</v>
+      </c>
+      <c r="F4">
+        <v>32.16449087898899</v>
+      </c>
+      <c r="G4">
+        <v>27.1254215823669</v>
+      </c>
+      <c r="H4">
+        <v>33.30320880280745</v>
+      </c>
+      <c r="I4">
+        <v>41.46900737803497</v>
+      </c>
+      <c r="J4">
+        <v>52.02906043514955</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>17.64</v>
+      </c>
+      <c r="C5">
+        <v>-11.75</v>
+      </c>
+      <c r="D5">
+        <v>5.99</v>
+      </c>
+      <c r="E5">
+        <v>15.57043999293801</v>
+      </c>
+      <c r="F5">
+        <v>12.8043184724747</v>
+      </c>
+      <c r="G5">
+        <v>18.85931127878445</v>
+      </c>
+      <c r="H5">
+        <v>25.4816995111812</v>
+      </c>
+      <c r="I5">
+        <v>28.25662819049077</v>
+      </c>
+      <c r="J5">
+        <v>16.50941166738277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>54.41</v>
+      </c>
+      <c r="C6">
+        <v>14.63</v>
+      </c>
+      <c r="D6">
+        <v>39.99</v>
+      </c>
+      <c r="E6">
+        <v>49.38908475192298</v>
+      </c>
+      <c r="F6">
+        <v>52.31046280853096</v>
+      </c>
+      <c r="G6">
+        <v>57.92436988814625</v>
+      </c>
+      <c r="H6">
+        <v>58.13586460350098</v>
+      </c>
+      <c r="I6">
+        <v>54.25144433199701</v>
+      </c>
+      <c r="J6">
+        <v>68.88029706761236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>40.22</v>
+      </c>
+      <c r="C7">
+        <v>0.97</v>
+      </c>
+      <c r="D7">
+        <v>26.99</v>
+      </c>
+      <c r="E7">
+        <v>31.87595456032117</v>
+      </c>
+      <c r="F7">
+        <v>41.10641883272371</v>
+      </c>
+      <c r="G7">
+        <v>32.00695932182845</v>
+      </c>
+      <c r="H7">
+        <v>40.76280627866912</v>
+      </c>
+      <c r="I7">
+        <v>53.89874091277316</v>
+      </c>
+      <c r="J7">
+        <v>54.86593238900583</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>34.61</v>
+      </c>
+      <c r="C8">
+        <v>-13.67</v>
+      </c>
+      <c r="D8">
+        <v>22.99</v>
+      </c>
+      <c r="E8">
+        <v>31.72654448754431</v>
+      </c>
+      <c r="F8">
+        <v>32.97545871568487</v>
+      </c>
+      <c r="G8">
+        <v>39.19087427381018</v>
+      </c>
+      <c r="H8">
+        <v>32.42706949047957</v>
+      </c>
+      <c r="I8">
+        <v>48.31134385818083</v>
+      </c>
+      <c r="J8">
+        <v>34.63689213053005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>25.88</v>
+      </c>
+      <c r="C9">
+        <v>4.78</v>
+      </c>
+      <c r="D9">
+        <v>7.99</v>
+      </c>
+      <c r="E9">
+        <v>18.37067558208396</v>
+      </c>
+      <c r="F9">
+        <v>18.23419312660174</v>
+      </c>
+      <c r="G9">
+        <v>21.90219529540968</v>
+      </c>
+      <c r="H9">
+        <v>33.97963656970028</v>
+      </c>
+      <c r="I9">
+        <v>37.94630515426904</v>
+      </c>
+      <c r="J9">
+        <v>42.72632301091228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>18.47</v>
+      </c>
+      <c r="C10">
+        <v>5.94</v>
+      </c>
+      <c r="D10">
+        <v>7.99</v>
+      </c>
+      <c r="E10">
+        <v>16.84948457272696</v>
+      </c>
+      <c r="F10">
+        <v>11.54309044599909</v>
+      </c>
+      <c r="G10">
+        <v>14.75330243719455</v>
+      </c>
+      <c r="H10">
+        <v>33.90009979097874</v>
+      </c>
+      <c r="I10">
+        <v>19.1721383608798</v>
+      </c>
+      <c r="J10">
+        <v>25.11605530195772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>24.11</v>
+      </c>
+      <c r="C11">
+        <v>-10.59</v>
+      </c>
+      <c r="D11">
+        <v>12.99</v>
+      </c>
+      <c r="E11">
+        <v>16.47749287212807</v>
+      </c>
+      <c r="F11">
+        <v>27.33254981166377</v>
+      </c>
+      <c r="G11">
+        <v>23.72841519962031</v>
+      </c>
+      <c r="H11">
+        <v>29.36285959682782</v>
+      </c>
+      <c r="I11">
+        <v>34.7278455406358</v>
+      </c>
+      <c r="J11">
+        <v>24.13800315023939</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>12.93</v>
+      </c>
+      <c r="C12">
+        <v>5.16</v>
+      </c>
+      <c r="D12">
+        <v>3.49</v>
+      </c>
+      <c r="E12">
+        <v>7.659203272166541</v>
+      </c>
+      <c r="F12">
+        <v>16.92025812801388</v>
+      </c>
+      <c r="G12">
+        <v>12.48464093023007</v>
+      </c>
+      <c r="H12">
+        <v>9.877003082333786</v>
+      </c>
+      <c r="I12">
+        <v>17.45720595360578</v>
+      </c>
+      <c r="J12">
+        <v>22.6142458121836</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>18.98</v>
+      </c>
+      <c r="C13">
+        <v>6.77</v>
+      </c>
+      <c r="D13">
+        <v>4.49</v>
+      </c>
+      <c r="E13">
+        <v>8.442517970625033</v>
+      </c>
+      <c r="F13">
+        <v>17.79707391159633</v>
+      </c>
+      <c r="G13">
+        <v>18.55378375630205</v>
+      </c>
+      <c r="H13">
+        <v>29.64544709138575</v>
+      </c>
+      <c r="I13">
+        <v>23.58716390932933</v>
+      </c>
+      <c r="J13">
+        <v>30.3606784800662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B14">
+        <v>21.67</v>
+      </c>
+      <c r="C14">
+        <v>13.85</v>
+      </c>
+      <c r="D14">
+        <v>8.49</v>
+      </c>
+      <c r="E14">
+        <v>14.17619052815607</v>
+      </c>
+      <c r="F14">
+        <v>21.74842699055428</v>
+      </c>
+      <c r="G14">
+        <v>13.16231105535532</v>
+      </c>
+      <c r="H14">
+        <v>27.27037988810207</v>
+      </c>
+      <c r="I14">
+        <v>26.47991569286085</v>
+      </c>
+      <c r="J14">
+        <v>40.32801073263655</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B15">
+        <v>16.16</v>
+      </c>
+      <c r="C15">
+        <v>-15.02</v>
+      </c>
+      <c r="D15">
+        <v>4.49</v>
+      </c>
+      <c r="E15">
+        <v>9.480057385168259</v>
+      </c>
+      <c r="F15">
+        <v>12.56898075344304</v>
+      </c>
+      <c r="G15">
+        <v>14.1589437928721</v>
+      </c>
+      <c r="H15">
+        <v>25.868251585767</v>
+      </c>
+      <c r="I15">
+        <v>30.78913606646222</v>
+      </c>
+      <c r="J15">
+        <v>15.76741444450952</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B16">
+        <v>22.1</v>
+      </c>
+      <c r="C16">
+        <v>-15.82</v>
+      </c>
+      <c r="D16">
+        <v>10.99</v>
+      </c>
+      <c r="E16">
+        <v>19.48292141303504</v>
+      </c>
+      <c r="F16">
+        <v>23.53505234335069</v>
+      </c>
+      <c r="G16">
+        <v>23.99803316993522</v>
+      </c>
+      <c r="H16">
+        <v>20.4811656934305</v>
+      </c>
+      <c r="I16">
+        <v>36.03357527520628</v>
+      </c>
+      <c r="J16">
+        <v>20.21087888848856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B17">
+        <v>24.95</v>
+      </c>
+      <c r="C17">
+        <v>1.79</v>
+      </c>
+      <c r="D17">
+        <v>10.99</v>
+      </c>
+      <c r="E17">
+        <v>20.5856139413688</v>
+      </c>
+      <c r="F17">
+        <v>14.91950553084983</v>
+      </c>
+      <c r="G17">
+        <v>23.42893151922021</v>
+      </c>
+      <c r="H17">
+        <v>21.63143504078938</v>
+      </c>
+      <c r="I17">
+        <v>40.66786045624484</v>
+      </c>
+      <c r="J17">
+        <v>42.45867927034507</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B18">
+        <v>100.27</v>
+      </c>
+      <c r="C18">
+        <v>-17.35</v>
+      </c>
+      <c r="D18">
+        <v>89.98999999999999</v>
+      </c>
+      <c r="E18">
+        <v>92.84958402516459</v>
+      </c>
+      <c r="F18">
+        <v>95.83996618806455</v>
+      </c>
+      <c r="G18">
+        <v>108.7466809358579</v>
+      </c>
+      <c r="H18">
+        <v>99.24951520437101</v>
+      </c>
+      <c r="I18">
+        <v>116.2817655140457</v>
+      </c>
+      <c r="J18">
+        <v>98.93053105646396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
       <c r="B19">
-        <v>0</v>
+        <v>39.66</v>
       </c>
       <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>36</v>
+        <v>7.92</v>
+      </c>
+      <c r="D19">
+        <v>27.99</v>
+      </c>
+      <c r="E19">
+        <v>30.9492110065956</v>
+      </c>
+      <c r="F19">
+        <v>34.79123502621981</v>
+      </c>
+      <c r="G19">
+        <v>47.92599088161641</v>
+      </c>
+      <c r="H19">
+        <v>43.0034527505418</v>
+      </c>
+      <c r="I19">
+        <v>42.50505916433766</v>
+      </c>
+      <c r="J19">
+        <v>50.4243940097371</v>
       </c>
     </row>
   </sheetData>

--- a/excels/my_list_report.xlsx
+++ b/excels/my_list_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Card name</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Highest Price</t>
   </si>
   <si>
-    <t>Price 2021-05-17</t>
+    <t>Price 2021-05-23</t>
   </si>
   <si>
     <t>Intuition, Tempest (TE) Price History</t>
@@ -50,54 +50,6 @@
   </si>
   <si>
     <t>Demonic Consultation, Ice Age (ICE) Price History</t>
-  </si>
-  <si>
-    <t>Gamble, Judge Promos:Foil (PRM-JUD) Price History</t>
-  </si>
-  <si>
-    <t>Rain of Filth, Urzas Saga (UZ) Price History</t>
-  </si>
-  <si>
-    <t>Red Elemental Blast, Revised Edition (3ED) Price History</t>
-  </si>
-  <si>
-    <t>Brain Freeze, The List (PLIST) Price History</t>
-  </si>
-  <si>
-    <t>Cabal Ritual, Torment (TOR) Price History</t>
-  </si>
-  <si>
-    <t>Snap, Mystery Booster (MB1) Price History</t>
-  </si>
-  <si>
-    <t>Winds of Rebuke, Amonkhet (AKH) Price History</t>
-  </si>
-  <si>
-    <t>Praetors Grasp, New Phyrexia (NPH) Price History</t>
-  </si>
-  <si>
-    <t>Wheel of Misfortune, Commander Legends (CMR) Price History</t>
-  </si>
-  <si>
-    <t>Ad Nauseam, Double Masters (2XM) Price History</t>
-  </si>
-  <si>
-    <t>Peer into the Abyss, Core Set 2021 (M21) Price History</t>
-  </si>
-  <si>
-    <t>Talisman of Creativity, Commander 2021 (C21) Price History</t>
-  </si>
-  <si>
-    <t>Talisman of Dominance, Mirrodin (MRD) Price History</t>
-  </si>
-  <si>
-    <t>Underworld Breach, Theros Beyond Death (THB) Price History</t>
-  </si>
-  <si>
-    <t>Boseiju Who Shelters All, From the Vault Realms:Foil (V12) Price</t>
-  </si>
-  <si>
-    <t>Spire of Industry, Aether Revolt (AER) Price History</t>
   </si>
 </sst>
 </file>
@@ -455,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,7 +456,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>239.99</v>
+        <v>199.99</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -527,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -596,12 +548,12 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>26.99</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -619,357 +571,12 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.94</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="G8">
-        <v>7.99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>2.29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>7.99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>6.99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>9.99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>4.49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>7.99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>7.99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>7.99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>24.99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="G23">
-        <v>438.2400000000001</v>
+        <v>291.3</v>
       </c>
     </row>
   </sheetData>

--- a/excels/my_list_report.xlsx
+++ b/excels/my_list_report.xlsx
@@ -34,7 +34,7 @@
     <t>Highest Price</t>
   </si>
   <si>
-    <t>Price 2021-05-23</t>
+    <t>Price 2021-05-30</t>
   </si>
   <si>
     <t>Intuition, Tempest (TE) Price History</t>
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>20.99</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>17.99</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -576,7 +576,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="G8">
-        <v>291.3</v>
+        <v>292.3</v>
       </c>
     </row>
   </sheetData>
